--- a/project_assignment/questionaire/Coodbook for the library questionnaire.xlsx
+++ b/project_assignment/questionaire/Coodbook for the library questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\project_assignment\questionaire_worksheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\project_assignment\questionaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3D5762-F3AF-4706-B981-F92AD605A366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A7B7DC-1FAA-4D2B-96BA-26D981BB012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="3015" windowWidth="16200" windowHeight="9360" xr2:uid="{C86C9455-C5EA-46A8-9451-0EDD66E20CB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C86C9455-C5EA-46A8-9451-0EDD66E20CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,9 +632,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
